--- a/biology/Zoologie/Erythrosuchidae/Erythrosuchidae.xlsx
+++ b/biology/Zoologie/Erythrosuchidae/Erythrosuchidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erythrosuchidae constituent une famille éteinte d'archosauromorphes basaux carnivores.
 Certains atteignirent de grandes tailles. Ils ont vécu, en grand nombre, au cours du Trias, il y a environ entre 252 et 201 Ma (millions d'années).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erythrosuchidae étaient de grands prédateurs et chassaient dans un  milieu aquatique. Ils devaient avoir l'importance des crocodiles actuels. Les plus grands d'entre eux, comme le célèbre Erythrosuchus, atteignaient 5 mètres de long, avec un crâne de 1 mètre.
 On pense qu'ils se nourrissaient notamment de dicynodontes (thérapsides anomodontes herbivores de cette époque) et notamment de Kannemeyeriidae.
